--- a/regionseng/8/industry/industry.xlsx
+++ b/regionseng/8/industry/industry.xlsx
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -168,6 +180,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +504,7 @@
     <col min="1" max="1" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +521,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -547,8 +568,14 @@
       <c r="P2" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q2" s="11">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -597,8 +624,14 @@
       <c r="P3" s="10">
         <v>2987.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q3" s="12">
+        <v>3600.7</v>
+      </c>
+      <c r="R3" s="12">
+        <v>4362.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -647,8 +680,14 @@
       <c r="P4" s="10">
         <v>2889.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q4" s="12">
+        <v>3532.8</v>
+      </c>
+      <c r="R4" s="12">
+        <v>4292.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -697,8 +736,14 @@
       <c r="P5" s="7">
         <v>15213</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q5" s="13">
+        <v>18071</v>
+      </c>
+      <c r="R5" s="13">
+        <v>19601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -747,8 +792,14 @@
       <c r="P6" s="7">
         <v>14882</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q6" s="13">
+        <v>17664</v>
+      </c>
+      <c r="R6" s="13">
+        <v>19209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -797,8 +848,14 @@
       <c r="P7" s="10">
         <v>1577.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>1627.1</v>
+      </c>
+      <c r="R7" s="12">
+        <v>1797.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -847,8 +904,14 @@
       <c r="P8" s="10">
         <v>1989.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>2303.5</v>
+      </c>
+      <c r="R8" s="12">
+        <v>2582.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -897,8 +960,14 @@
       <c r="P9" s="10">
         <v>287</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>349.4</v>
+      </c>
+      <c r="R9" s="12">
+        <v>420.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -947,8 +1016,14 @@
       <c r="P10" s="10">
         <v>900.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q10" s="12">
+        <v>1229.3</v>
+      </c>
+      <c r="R10" s="12">
+        <v>1709.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -997,8 +1072,14 @@
       <c r="P11" s="10">
         <v>322.39999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12">
+        <v>253.1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>196.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -1047,10 +1128,16 @@
       <c r="P12" s="10">
         <v>2026.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q12" s="12">
+        <v>2426.1999999999998</v>
+      </c>
+      <c r="R12" s="12">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>

--- a/regionseng/8/industry/industry.xlsx
+++ b/regionseng/8/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +504,7 @@
     <col min="1" max="1" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,7 +521,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -574,8 +574,11 @@
       <c r="R2" s="11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S2" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -630,8 +633,11 @@
       <c r="R3" s="12">
         <v>4362.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S3" s="12">
+        <v>3708.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -686,8 +692,11 @@
       <c r="R4" s="12">
         <v>4292.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S4" s="12">
+        <v>3716.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -742,8 +751,11 @@
       <c r="R5" s="13">
         <v>19601</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S5" s="13">
+        <v>19656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -798,8 +810,11 @@
       <c r="R6" s="13">
         <v>19209</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S6" s="13">
+        <v>19174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -854,8 +869,11 @@
       <c r="R7" s="12">
         <v>1797.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S7" s="12">
+        <v>1986.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -910,8 +928,11 @@
       <c r="R8" s="12">
         <v>2582.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S8" s="12">
+        <v>2657.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -966,8 +987,11 @@
       <c r="R9" s="12">
         <v>420.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S9" s="12">
+        <v>471.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1022,8 +1046,11 @@
       <c r="R10" s="12">
         <v>1709.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S10" s="12">
+        <v>1058.9000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1105,11 @@
       <c r="R11" s="12">
         <v>196.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S11" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -1134,10 +1164,13 @@
       <c r="R12" s="12">
         <v>2776</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S12" s="12">
+        <v>2726.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
